--- a/xlsx_files/compare.xlsx
+++ b/xlsx_files/compare.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="3" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="3" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Méthodologie" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grille de lecture du Reporting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Drop-down values" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ag COSTA RICA" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ag CUBA" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ag MEXIQUE" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ag MULTI-PAYS (CZZ MPE) - DR AM" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agents resp versement ROME" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Données index_DocProjetConcou" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contacts" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Méthodologie" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Grille de lecture du Reporting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Drop-down values" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Ag COSTA RICA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Ag CUBA" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Ag MEXIQUE" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Ag MULTI-PAYS (CZZ MPE) - DR AM" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Agents resp versement ROME" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Données index_DocProjetConcou" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Contacts" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -132,7 +132,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -159,11 +159,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -294,231 +289,223 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="83">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="10" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="5" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="5" fillId="4" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -596,17 +583,17 @@
     <author>rstudio-connect</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment authorId="0" ref="F4" shapeId="0">
       <text>
         <t>Ce graphe permet de visualiser le pourcentage moyen de documents présents  sur  l'ensemble des Dossiers Permanents affectés à  l'agence XXXXX</t>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A12" shapeId="0">
       <text>
         <t>Graphe  représentant le pourcentage de documents présent dans le dossier permanent pour ce concours</t>
       </text>
     </comment>
-    <comment ref="H12" authorId="0" shapeId="0">
+    <comment authorId="0" ref="H12" shapeId="0">
       <text>
         <t>Champs à compléter par l'agent responsable du versement dans ROME</t>
       </text>
@@ -616,7 +603,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -629,20 +616,20 @@
       <nvPicPr>
         <cNvPr id="2" name="Picture 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -661,20 +648,20 @@
       <nvPicPr>
         <cNvPr id="3" name="Picture 2"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -693,20 +680,20 @@
       <nvPicPr>
         <cNvPr id="4" name="Picture 3"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -725,20 +712,20 @@
       <nvPicPr>
         <cNvPr id="5" name="Picture 4"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -757,20 +744,20 @@
       <nvPicPr>
         <cNvPr id="6" name="Picture 5"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -789,20 +776,20 @@
       <nvPicPr>
         <cNvPr id="7" name="Picture 6"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -821,20 +808,20 @@
       <nvPicPr>
         <cNvPr id="8" name="Picture 7"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -845,7 +832,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>4</col>
@@ -858,20 +845,20 @@
       <nvPicPr>
         <cNvPr id="2" name="Picture 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -890,20 +877,20 @@
       <nvPicPr>
         <cNvPr id="3" name="Picture 2"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -922,20 +909,20 @@
       <nvPicPr>
         <cNvPr id="4" name="Picture 3"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -946,7 +933,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -959,20 +946,20 @@
       <nvPicPr>
         <cNvPr id="2" name="Picture 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -991,20 +978,20 @@
       <nvPicPr>
         <cNvPr id="3" name="Picture 2"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1023,20 +1010,20 @@
       <nvPicPr>
         <cNvPr id="4" name="Picture 3"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1055,20 +1042,20 @@
       <nvPicPr>
         <cNvPr id="5" name="Picture 4"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1087,24 +1074,24 @@
       <nvPicPr>
         <cNvPr id="6" name="Picture 5"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="5381615" y="1143000"/>
           <a:ext cx="4168800" cy="1857600"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1115,7 +1102,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -1128,20 +1115,20 @@
       <nvPicPr>
         <cNvPr id="2" name="Picture 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1160,20 +1147,20 @@
       <nvPicPr>
         <cNvPr id="3" name="Picture 2"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1192,20 +1179,20 @@
       <nvPicPr>
         <cNvPr id="4" name="Picture 3"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1224,20 +1211,20 @@
       <nvPicPr>
         <cNvPr id="5" name="Picture 4"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1256,20 +1243,20 @@
       <nvPicPr>
         <cNvPr id="6" name="Picture 5"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1288,20 +1275,20 @@
       <nvPicPr>
         <cNvPr id="7" name="Picture 6"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1320,20 +1307,20 @@
       <nvPicPr>
         <cNvPr id="8" name="Picture 7"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1352,20 +1339,20 @@
       <nvPicPr>
         <cNvPr id="9" name="Picture 8"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1384,20 +1371,20 @@
       <nvPicPr>
         <cNvPr id="10" name="Picture 9"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1416,20 +1403,20 @@
       <nvPicPr>
         <cNvPr id="11" name="Picture 10"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1448,20 +1435,20 @@
       <nvPicPr>
         <cNvPr id="12" name="Picture 11"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1480,20 +1467,20 @@
       <nvPicPr>
         <cNvPr id="13" name="Picture 12"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1512,20 +1499,20 @@
       <nvPicPr>
         <cNvPr id="14" name="Picture 13"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1544,20 +1531,20 @@
       <nvPicPr>
         <cNvPr id="15" name="Picture 14"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1576,20 +1563,20 @@
       <nvPicPr>
         <cNvPr id="16" name="Picture 15"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1608,20 +1595,20 @@
       <nvPicPr>
         <cNvPr id="17" name="Picture 16"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1640,20 +1627,20 @@
       <nvPicPr>
         <cNvPr id="18" name="Picture 17"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1672,20 +1659,20 @@
       <nvPicPr>
         <cNvPr id="19" name="Picture 18"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1704,20 +1691,20 @@
       <nvPicPr>
         <cNvPr id="20" name="Picture 19"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1736,20 +1723,20 @@
       <nvPicPr>
         <cNvPr id="21" name="Picture 20"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1768,20 +1755,20 @@
       <nvPicPr>
         <cNvPr id="22" name="Picture 21"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1800,20 +1787,20 @@
       <nvPicPr>
         <cNvPr id="23" name="Picture 22"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1832,20 +1819,20 @@
       <nvPicPr>
         <cNvPr id="24" name="Picture 23"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1864,24 +1851,24 @@
       <nvPicPr>
         <cNvPr id="26" name="Picture 25"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="5429243" y="1143000"/>
           <a:ext cx="4168800" cy="1857600"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1892,7 +1879,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -1905,20 +1892,20 @@
       <nvPicPr>
         <cNvPr id="2" name="Picture 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1937,20 +1924,20 @@
       <nvPicPr>
         <cNvPr id="3" name="Picture 2"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1969,20 +1956,20 @@
       <nvPicPr>
         <cNvPr id="4" name="Picture 3"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2001,20 +1988,20 @@
       <nvPicPr>
         <cNvPr id="5" name="Picture 4"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2033,20 +2020,20 @@
       <nvPicPr>
         <cNvPr id="6" name="Picture 5"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2065,20 +2052,20 @@
       <nvPicPr>
         <cNvPr id="7" name="Picture 6"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2097,20 +2084,20 @@
       <nvPicPr>
         <cNvPr id="8" name="Picture 7"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2129,20 +2116,20 @@
       <nvPicPr>
         <cNvPr id="9" name="Picture 8"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2161,20 +2148,20 @@
       <nvPicPr>
         <cNvPr id="10" name="Picture 9"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2193,20 +2180,20 @@
       <nvPicPr>
         <cNvPr id="11" name="Picture 10"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2225,20 +2212,20 @@
       <nvPicPr>
         <cNvPr id="12" name="Picture 11"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2257,20 +2244,20 @@
       <nvPicPr>
         <cNvPr id="13" name="Picture 12"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2289,20 +2276,20 @@
       <nvPicPr>
         <cNvPr id="14" name="Picture 13"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2321,20 +2308,20 @@
       <nvPicPr>
         <cNvPr id="15" name="Picture 14"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2353,20 +2340,20 @@
       <nvPicPr>
         <cNvPr id="16" name="Picture 15"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2385,20 +2372,20 @@
       <nvPicPr>
         <cNvPr id="17" name="Picture 16"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2417,20 +2404,20 @@
       <nvPicPr>
         <cNvPr id="18" name="Picture 17"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2449,24 +2436,24 @@
       <nvPicPr>
         <cNvPr id="19" name="Picture 18"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="5453058" y="1143000"/>
           <a:ext cx="4168800" cy="1857600"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2477,7 +2464,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -2490,20 +2477,20 @@
       <nvPicPr>
         <cNvPr id="2" name="Picture 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2522,20 +2509,20 @@
       <nvPicPr>
         <cNvPr id="3" name="Picture 2"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2554,20 +2541,20 @@
       <nvPicPr>
         <cNvPr id="4" name="Picture 3"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2586,20 +2573,20 @@
       <nvPicPr>
         <cNvPr id="5" name="Picture 4"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2618,24 +2605,24 @@
       <nvPicPr>
         <cNvPr id="6" name="Picture 5"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="5393527" y="1143000"/>
           <a:ext cx="4168800" cy="1857600"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2646,7 +2633,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -2659,20 +2646,20 @@
       <nvPicPr>
         <cNvPr id="2" name="Picture 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2691,20 +2678,20 @@
       <nvPicPr>
         <cNvPr id="3" name="Picture 2"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2715,7 +2702,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -2728,20 +2715,20 @@
       <nvPicPr>
         <cNvPr id="2" name="Picture 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2760,20 +2747,20 @@
       <nvPicPr>
         <cNvPr id="3" name="Picture 2"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -2784,7 +2771,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>1</col>
@@ -2797,20 +2784,20 @@
       <nvPicPr>
         <cNvPr id="2" name="Picture 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -3098,7 +3085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="FF002060"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3112,10 +3099,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="60.7109375" customWidth="1" style="76" min="1" max="2"/>
+    <col customWidth="1" max="2" min="1" style="76" width="60.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" s="76">
+    <row customHeight="1" ht="21" r="1" s="76">
       <c r="A1" s="81" t="inlineStr">
         <is>
           <t>Récapitulons….</t>
@@ -3125,7 +3112,7 @@
     </row>
     <row r="2"/>
     <row r="3"/>
-    <row r="4" ht="47.25" customHeight="1" s="76">
+    <row customHeight="1" ht="47.25" r="4" s="76">
       <c r="A4" s="79" t="inlineStr">
         <is>
           <t>CRC contrôle à fréquence annuelle les DP concours par Agence</t>
@@ -3161,7 +3148,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="78.75" customHeight="1" s="76">
+    <row customHeight="1" ht="78.75" r="7" s="76">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">                              CRC envoie par mail, un Reporting des résultats de contrôles par agence/structure au Siège et/ou à l'agence. Avec un focus sur les documents manquants</t>
@@ -3197,7 +3184,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="31.5" customHeight="1" s="76">
+    <row customHeight="1" ht="31.5" r="10" s="76">
       <c r="A10" s="79" t="inlineStr">
         <is>
           <t>Les agents responsables du versement dans ROME réaliseront les actions suivantes :</t>
@@ -3232,7 +3219,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="47.25" customHeight="1" s="76">
+    <row customHeight="1" ht="47.25" r="13" s="76">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>1)  Collecter le document</t>
@@ -3268,7 +3255,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="63" customHeight="1" s="76">
+    <row customHeight="1" ht="63" r="16" s="76">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>Vous avez trouvé le document ! 
@@ -3288,7 +3275,7 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
     </row>
-    <row r="19" ht="31.5" customHeight="1" s="76">
+    <row customHeight="1" ht="31.5" r="19" s="76">
       <c r="A19" s="2" t="inlineStr">
         <is>
           <t>Vous ne trouvez pas le document!
@@ -3308,7 +3295,7 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
     </row>
-    <row r="22" ht="63" customHeight="1" s="76">
+    <row customHeight="1" ht="63" r="22" s="76">
       <c r="A22" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">3) Quelle que soit la situation (document collecté ou non) merci de nous renvoyer le Reporting  avec vos commentaires à l'endroit prévu à cet effet 'Commentaire agent (responsable du versement dans ROME)' </t>
@@ -3320,14 +3307,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -3340,9 +3327,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="30.7109375" customWidth="1" style="76" min="1" max="1"/>
-    <col width="25.7109375" customWidth="1" style="76" min="2" max="2"/>
-    <col width="30.7109375" customWidth="1" style="76" min="3" max="3"/>
+    <col customWidth="1" max="1" min="1" style="76" width="30.7109375"/>
+    <col customWidth="1" max="2" min="2" style="76" width="25.7109375"/>
+    <col customWidth="1" max="3" min="3" style="76" width="30.7109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3426,18 +3413,18 @@
     <mergeCell ref="C9:E9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="FF002060"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3451,12 +3438,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="25.7109375" customWidth="1" style="76" min="1" max="1"/>
-    <col width="10.7109375" customWidth="1" style="76" min="2" max="2"/>
-    <col width="15.7109375" customWidth="1" style="76" min="3" max="3"/>
-    <col width="25.7109375" customWidth="1" style="76" min="4" max="4"/>
-    <col width="35.7109375" customWidth="1" style="76" min="5" max="5"/>
-    <col width="30.7109375" customWidth="1" style="76" min="6" max="8"/>
+    <col customWidth="1" max="1" min="1" style="76" width="25.7109375"/>
+    <col customWidth="1" max="2" min="2" style="76" width="10.7109375"/>
+    <col customWidth="1" max="3" min="3" style="76" width="15.7109375"/>
+    <col customWidth="1" max="4" min="4" style="76" width="25.7109375"/>
+    <col customWidth="1" max="5" min="5" style="76" width="35.7109375"/>
+    <col customWidth="1" max="8" min="6" style="76" width="30.7109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3483,7 +3470,7 @@
       <c r="H12" t="n"/>
     </row>
     <row r="13"/>
-    <row r="14" ht="45" customHeight="1" s="76">
+    <row customHeight="1" ht="45" r="14" s="76">
       <c r="A14" s="79" t="inlineStr">
         <is>
           <t>Graph Concours</t>
@@ -3660,10 +3647,10 @@
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="B24:C24"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -3724,13 +3711,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3738,23 +3725,23 @@
   </sheetPr>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="35.7109375" customWidth="1" style="76" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="76" min="2" max="2"/>
-    <col width="10.7109375" customWidth="1" style="76" min="3" max="3"/>
-    <col width="15.7109375" customWidth="1" style="76" min="4" max="4"/>
-    <col width="25.7109375" customWidth="1" style="76" min="5" max="7"/>
-    <col width="30.7109375" customWidth="1" style="76" min="8" max="8"/>
-    <col width="17.85546875" bestFit="1" customWidth="1" style="76" min="9" max="9"/>
-    <col width="25.7109375" customWidth="1" style="76" min="10" max="10"/>
+    <col customWidth="1" max="1" min="1" style="76" width="35.7109375"/>
+    <col customWidth="1" max="2" min="2" style="76" width="12.7109375"/>
+    <col customWidth="1" max="3" min="3" style="76" width="10.7109375"/>
+    <col customWidth="1" max="4" min="4" style="76" width="15.7109375"/>
+    <col customWidth="1" max="7" min="5" style="76" width="25.7109375"/>
+    <col customWidth="1" max="8" min="8" style="76" width="30.7109375"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="76" width="17.85546875"/>
+    <col customWidth="1" max="10" min="10" style="76" width="25.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="76">
+    <row customHeight="1" ht="15" r="1" s="76">
       <c r="A1" s="81" t="inlineStr">
         <is>
           <t>REPORTING AGENCE COSTA RICA au 2021-11-26 sur la Complétude des Dossiers Permanents</t>
@@ -3763,7 +3750,7 @@
     </row>
     <row r="2"/>
     <row r="3"/>
-    <row r="4" ht="15" customHeight="1" s="76">
+    <row customHeight="1" ht="15" r="4" s="76">
       <c r="A4" s="82" t="inlineStr">
         <is>
           <t>Taux de complétude moyen de l'agence</t>
@@ -3779,7 +3766,7 @@
     <row r="11"/>
     <row r="12"/>
     <row r="13">
-      <c r="H13" s="83" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Murali</t>
         </is>
@@ -3813,7 +3800,7 @@
       </c>
       <c r="J21" s="79" t="n"/>
     </row>
-    <row r="22" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="22" s="76">
       <c r="A22" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -3865,7 +3852,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="45" customHeight="1" s="76">
+    <row customHeight="1" ht="45" r="23" s="76">
       <c r="A23" s="61" t="n">
         <v>0.92</v>
       </c>
@@ -3894,12 +3881,12 @@
           <t>Banco Nacional de Costa Rica</t>
         </is>
       </c>
-      <c r="G23" s="84" t="inlineStr">
+      <c r="G23" s="9" t="inlineStr">
         <is>
           <t>Murali</t>
         </is>
       </c>
-      <c r="H23" s="84" t="inlineStr">
+      <c r="H23" s="9" t="inlineStr">
         <is>
           <t>1-	Régularisé dans ROME ( versé ; modification du nom et/ou du type de document…)</t>
         </is>
@@ -3959,7 +3946,7 @@
       </c>
       <c r="J28" s="79" t="n"/>
     </row>
-    <row r="29" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="29" s="76">
       <c r="A29" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -4185,7 +4172,7 @@
       </c>
       <c r="J35" s="79" t="n"/>
     </row>
-    <row r="36" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="36" s="76">
       <c r="A36" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -4402,7 +4389,7 @@
       </c>
       <c r="J47" s="79" t="n"/>
     </row>
-    <row r="48" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="48" s="76">
       <c r="A48" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -4604,14 +4591,14 @@
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="H28:I28"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4619,23 +4606,23 @@
   </sheetPr>
   <dimension ref="A1:J226"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
       <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="35.7109375" customWidth="1" style="76" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="76" min="2" max="2"/>
-    <col width="10.7109375" customWidth="1" style="76" min="3" max="3"/>
-    <col width="15.7109375" customWidth="1" style="76" min="4" max="4"/>
-    <col width="25.7109375" customWidth="1" style="76" min="5" max="7"/>
-    <col width="30.7109375" customWidth="1" style="76" min="8" max="8"/>
-    <col width="17.85546875" bestFit="1" customWidth="1" style="76" min="9" max="9"/>
-    <col width="25.7109375" customWidth="1" style="76" min="10" max="10"/>
+    <col customWidth="1" max="1" min="1" style="76" width="35.7109375"/>
+    <col customWidth="1" max="2" min="2" style="76" width="12.7109375"/>
+    <col customWidth="1" max="3" min="3" style="76" width="10.7109375"/>
+    <col customWidth="1" max="4" min="4" style="76" width="15.7109375"/>
+    <col customWidth="1" max="7" min="5" style="76" width="25.7109375"/>
+    <col customWidth="1" max="8" min="8" style="76" width="30.7109375"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="76" width="17.85546875"/>
+    <col customWidth="1" max="10" min="10" style="76" width="25.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="76">
+    <row customHeight="1" ht="15" r="1" s="76">
       <c r="A1" s="81" t="inlineStr">
         <is>
           <t>REPORTING AGENCE CUBA au 2021-11-26 sur la Complétude des Dossiers Permanents</t>
@@ -4644,7 +4631,7 @@
     </row>
     <row r="2"/>
     <row r="3"/>
-    <row r="4" ht="15" customHeight="1" s="76">
+    <row customHeight="1" ht="15" r="4" s="76">
       <c r="A4" s="82" t="inlineStr">
         <is>
           <t>Taux de complétude moyen de l'agence</t>
@@ -4688,7 +4675,7 @@
       </c>
       <c r="J21" s="79" t="n"/>
     </row>
-    <row r="22" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="22" s="76">
       <c r="A22" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -4905,7 +4892,7 @@
       </c>
       <c r="J33" s="79" t="n"/>
     </row>
-    <row r="34" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="34" s="76">
       <c r="A34" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -5131,7 +5118,7 @@
       </c>
       <c r="J40" s="79" t="n"/>
     </row>
-    <row r="41" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="41" s="76">
       <c r="A41" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -5357,7 +5344,7 @@
       </c>
       <c r="J47" s="79" t="n"/>
     </row>
-    <row r="48" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="48" s="76">
       <c r="A48" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -5583,7 +5570,7 @@
       </c>
       <c r="J54" s="79" t="n"/>
     </row>
-    <row r="55" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="55" s="76">
       <c r="A55" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -5809,7 +5796,7 @@
       </c>
       <c r="J61" s="79" t="n"/>
     </row>
-    <row r="62" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="62" s="76">
       <c r="A62" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -6035,7 +6022,7 @@
       </c>
       <c r="J68" s="79" t="n"/>
     </row>
-    <row r="69" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="69" s="76">
       <c r="A69" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -6261,7 +6248,7 @@
       </c>
       <c r="J75" s="79" t="n"/>
     </row>
-    <row r="76" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="76" s="76">
       <c r="A76" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -6487,7 +6474,7 @@
       </c>
       <c r="J82" s="79" t="n"/>
     </row>
-    <row r="83" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="83" s="76">
       <c r="A83" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -6713,7 +6700,7 @@
       </c>
       <c r="J89" s="79" t="n"/>
     </row>
-    <row r="90" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="90" s="76">
       <c r="A90" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -6939,7 +6926,7 @@
       </c>
       <c r="J96" s="79" t="n"/>
     </row>
-    <row r="97" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="97" s="76">
       <c r="A97" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -7025,12 +7012,12 @@
           <t>GFD</t>
         </is>
       </c>
-      <c r="H98" s="84" t="inlineStr">
+      <c r="H98" s="9" t="inlineStr">
         <is>
           <t>1-	Régularisé dans ROME ( versé ; modification du nom et/ou du type de document…)</t>
         </is>
       </c>
-      <c r="I98" s="84" t="inlineStr">
+      <c r="I98" s="9" t="inlineStr">
         <is>
           <t>Y inclus dans l'offre</t>
         </is>
@@ -7082,7 +7069,7 @@
       </c>
       <c r="J103" s="79" t="n"/>
     </row>
-    <row r="104" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="104" s="76">
       <c r="A104" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -7308,7 +7295,7 @@
       </c>
       <c r="J110" s="79" t="n"/>
     </row>
-    <row r="111" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="111" s="76">
       <c r="A111" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -7394,12 +7381,12 @@
           <t>GFD</t>
         </is>
       </c>
-      <c r="H112" s="84" t="inlineStr">
+      <c r="H112" s="9" t="inlineStr">
         <is>
           <t>1-	Régularisé dans ROME ( versé ; modification du nom et/ou du type de document…)</t>
         </is>
       </c>
-      <c r="I112" s="84" t="n"/>
+      <c r="I112" s="9" t="n"/>
       <c r="J112" s="11" t="inlineStr"/>
     </row>
     <row r="113">
@@ -7458,7 +7445,7 @@
       </c>
       <c r="J122" s="79" t="n"/>
     </row>
-    <row r="123" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="123" s="76">
       <c r="A123" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -7675,7 +7662,7 @@
       </c>
       <c r="J134" s="79" t="n"/>
     </row>
-    <row r="135" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="135" s="76">
       <c r="A135" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -7757,7 +7744,7 @@
         </is>
       </c>
       <c r="G136" s="9" t="inlineStr"/>
-      <c r="H136" s="84" t="inlineStr">
+      <c r="H136" s="9" t="inlineStr">
         <is>
           <t>1-	Régularisé dans ROME ( versé ; modification du nom et/ou du type de document…)</t>
         </is>
@@ -7824,7 +7811,7 @@
       </c>
       <c r="J146" s="79" t="n"/>
     </row>
-    <row r="147" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="147" s="76">
       <c r="A147" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -8030,7 +8017,7 @@
       </c>
       <c r="J153" s="79" t="n"/>
     </row>
-    <row r="154" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="154" s="76">
       <c r="A154" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -8116,12 +8103,12 @@
           <t>GFD</t>
         </is>
       </c>
-      <c r="H155" s="84" t="inlineStr">
+      <c r="H155" s="9" t="inlineStr">
         <is>
           <t>1-	Régularisé dans ROME ( versé ; modification du nom et/ou du type de document…)</t>
         </is>
       </c>
-      <c r="I155" s="84" t="inlineStr">
+      <c r="I155" s="9" t="inlineStr">
         <is>
           <t>Régularisation à posteriori; en cours de validation sous ROME</t>
         </is>
@@ -8203,7 +8190,7 @@
       </c>
       <c r="J165" s="79" t="n"/>
     </row>
-    <row r="166" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="166" s="76">
       <c r="A166" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -8420,7 +8407,7 @@
       </c>
       <c r="J177" s="79" t="n"/>
     </row>
-    <row r="178" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="178" s="76">
       <c r="A178" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -8506,7 +8493,7 @@
           <t>GFD</t>
         </is>
       </c>
-      <c r="H179" s="84" t="inlineStr">
+      <c r="H179" s="9" t="inlineStr">
         <is>
           <t>1-	Régularisé dans ROME ( versé ; modification du nom et/ou du type de document…)</t>
         </is>
@@ -8578,7 +8565,7 @@
       </c>
       <c r="J184" s="79" t="n"/>
     </row>
-    <row r="185" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="185" s="76">
       <c r="A185" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -8664,7 +8651,7 @@
           <t>GFD</t>
         </is>
       </c>
-      <c r="H186" s="84" t="inlineStr">
+      <c r="H186" s="9" t="inlineStr">
         <is>
           <t>1-	Régularisé dans ROME ( versé ; modification du nom et/ou du type de document…)</t>
         </is>
@@ -8747,7 +8734,7 @@
       </c>
       <c r="J196" s="79" t="n"/>
     </row>
-    <row r="197" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="197" s="76">
       <c r="A197" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -8829,7 +8816,7 @@
         </is>
       </c>
       <c r="G198" s="9" t="inlineStr"/>
-      <c r="H198" s="84" t="inlineStr">
+      <c r="H198" s="9" t="inlineStr">
         <is>
           <t>1-	Régularisé dans ROME ( versé ; modification du nom et/ou du type de document…)</t>
         </is>
@@ -8896,7 +8883,7 @@
       </c>
       <c r="J208" s="79" t="n"/>
     </row>
-    <row r="209" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="209" s="76">
       <c r="A209" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -9113,7 +9100,7 @@
       </c>
       <c r="J220" s="79" t="n"/>
     </row>
-    <row r="221" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="221" s="76">
       <c r="A221" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -9342,14 +9329,14 @@
     <mergeCell ref="H75:I75"/>
     <mergeCell ref="H82:I82"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9357,24 +9344,24 @@
   </sheetPr>
   <dimension ref="A1:J209"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
       <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="35.7109375" customWidth="1" style="76" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="76" min="2" max="2"/>
-    <col width="10.7109375" customWidth="1" style="76" min="3" max="3"/>
-    <col width="15.7109375" customWidth="1" style="76" min="4" max="4"/>
-    <col width="38.7109375" customWidth="1" style="76" min="5" max="5"/>
-    <col width="25.7109375" customWidth="1" style="76" min="6" max="7"/>
-    <col width="30.7109375" customWidth="1" style="76" min="8" max="8"/>
-    <col width="17.85546875" bestFit="1" customWidth="1" style="76" min="9" max="9"/>
-    <col width="25.7109375" customWidth="1" style="76" min="10" max="10"/>
+    <col customWidth="1" max="1" min="1" style="76" width="35.7109375"/>
+    <col customWidth="1" max="2" min="2" style="76" width="12.7109375"/>
+    <col customWidth="1" max="3" min="3" style="76" width="10.7109375"/>
+    <col customWidth="1" max="4" min="4" style="76" width="15.7109375"/>
+    <col customWidth="1" max="5" min="5" style="76" width="38.7109375"/>
+    <col customWidth="1" max="7" min="6" style="76" width="25.7109375"/>
+    <col customWidth="1" max="8" min="8" style="76" width="30.7109375"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="76" width="17.85546875"/>
+    <col customWidth="1" max="10" min="10" style="76" width="25.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="76">
+    <row customHeight="1" ht="15" r="1" s="76">
       <c r="A1" s="81" t="inlineStr">
         <is>
           <t>REPORTING AGENCE MEXIQUE au 2021-11-26 sur la Complétude des Dossiers Permanents</t>
@@ -9383,7 +9370,7 @@
     </row>
     <row r="2"/>
     <row r="3"/>
-    <row r="4" ht="15" customHeight="1" s="76">
+    <row customHeight="1" ht="15" r="4" s="76">
       <c r="A4" s="82" t="inlineStr">
         <is>
           <t>Taux de complétude moyen de l'agence</t>
@@ -9427,7 +9414,7 @@
       </c>
       <c r="J21" s="79" t="n"/>
     </row>
-    <row r="22" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="22" s="76">
       <c r="A22" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -9558,7 +9545,6 @@
           <t>ETAT FEDERAL DU MEXIQUE</t>
         </is>
       </c>
-      <c r="G25" s="83" t="n"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" s="12" t="inlineStr"/>
@@ -9644,7 +9630,7 @@
       </c>
       <c r="J33" s="79" t="n"/>
     </row>
-    <row r="34" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="34" s="76">
       <c r="A34" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -9675,7 +9661,7 @@
           <t>Tiers Bénéficiaire final</t>
         </is>
       </c>
-      <c r="G34" s="85" t="inlineStr">
+      <c r="G34" s="79" t="inlineStr">
         <is>
           <t>Pérazeazeimètre/Alerte</t>
         </is>
@@ -9861,7 +9847,7 @@
       </c>
       <c r="J45" s="79" t="n"/>
     </row>
-    <row r="46" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="46" s="76">
       <c r="A46" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -10067,7 +10053,7 @@
       </c>
       <c r="J52" s="79" t="n"/>
     </row>
-    <row r="53" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="53" s="76">
       <c r="A53" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -10304,7 +10290,7 @@
       </c>
       <c r="J64" s="79" t="n"/>
     </row>
-    <row r="65" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="65" s="76">
       <c r="A65" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -10521,7 +10507,7 @@
       </c>
       <c r="J76" s="79" t="n"/>
     </row>
-    <row r="77" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="77" s="76">
       <c r="A77" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -10738,7 +10724,7 @@
       </c>
       <c r="J88" s="79" t="n"/>
     </row>
-    <row r="89" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="89" s="76">
       <c r="A89" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -10964,7 +10950,7 @@
       </c>
       <c r="J95" s="79" t="n"/>
     </row>
-    <row r="96" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="96" s="76">
       <c r="A96" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -11181,7 +11167,7 @@
       </c>
       <c r="J107" s="79" t="n"/>
     </row>
-    <row r="108" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="108" s="76">
       <c r="A108" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -11398,7 +11384,7 @@
       </c>
       <c r="J119" s="79" t="n"/>
     </row>
-    <row r="120" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="120" s="76">
       <c r="A120" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -11615,7 +11601,7 @@
       </c>
       <c r="J131" s="79" t="n"/>
     </row>
-    <row r="132" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="132" s="76">
       <c r="A132" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -11832,7 +11818,7 @@
       </c>
       <c r="J143" s="79" t="n"/>
     </row>
-    <row r="144" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="144" s="76">
       <c r="A144" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -12049,7 +12035,7 @@
       </c>
       <c r="J155" s="79" t="n"/>
     </row>
-    <row r="156" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="156" s="76">
       <c r="A156" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -12266,7 +12252,7 @@
       </c>
       <c r="J167" s="79" t="n"/>
     </row>
-    <row r="168" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="168" s="76">
       <c r="A168" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -12483,7 +12469,7 @@
       </c>
       <c r="J179" s="79" t="n"/>
     </row>
-    <row r="180" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="180" s="76">
       <c r="A180" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -12700,7 +12686,7 @@
       </c>
       <c r="J191" s="79" t="n"/>
     </row>
-    <row r="192" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="192" s="76">
       <c r="A192" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -12752,7 +12738,7 @@
         </is>
       </c>
     </row>
-    <row r="193" ht="45" customHeight="1" s="76">
+    <row customHeight="1" ht="45" r="193" s="76">
       <c r="A193" s="61" t="n">
         <v>0.92</v>
       </c>
@@ -12782,7 +12768,7 @@
         </is>
       </c>
       <c r="G193" s="9" t="inlineStr"/>
-      <c r="H193" s="84" t="inlineStr">
+      <c r="H193" s="9" t="inlineStr">
         <is>
           <t>1-	Régularisé dans ROME ( versé ; modification du nom et/ou du type de document…)</t>
         </is>
@@ -12853,7 +12839,7 @@
       </c>
       <c r="J203" s="79" t="n"/>
     </row>
-    <row r="204" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="204" s="76">
       <c r="A204" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -12935,7 +12921,7 @@
         </is>
       </c>
       <c r="G205" s="9" t="inlineStr"/>
-      <c r="H205" s="84" t="inlineStr">
+      <c r="H205" s="9" t="inlineStr">
         <is>
           <t>1-	Régularisé dans ROME ( versé ; modification du nom et/ou du type de document…)</t>
         </is>
@@ -12971,13 +12957,13 @@
         </is>
       </c>
       <c r="G206" t="inlineStr"/>
-      <c r="H206" s="83" t="inlineStr">
+      <c r="H206" t="inlineStr">
         <is>
           <t xml:space="preserve">5-	Documentation non exigible ( au regard des procédures de l’époque et/ou du produit ; dérogation obtenue…) </t>
         </is>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" s="86" t="inlineStr">
+      <c r="J206" s="73" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de rétrocession </t>
         </is>
@@ -13046,14 +13032,14 @@
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="A43:D43"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13061,23 +13047,23 @@
   </sheetPr>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="35.7109375" customWidth="1" style="76" min="1" max="1"/>
-    <col width="12.7109375" customWidth="1" style="76" min="2" max="2"/>
-    <col width="15.42578125" customWidth="1" style="76" min="3" max="3"/>
-    <col width="15.7109375" customWidth="1" style="76" min="4" max="4"/>
-    <col width="25.7109375" customWidth="1" style="76" min="5" max="7"/>
-    <col width="30.7109375" customWidth="1" style="76" min="8" max="8"/>
-    <col width="17.85546875" bestFit="1" customWidth="1" style="76" min="9" max="9"/>
-    <col width="25.7109375" customWidth="1" style="76" min="10" max="10"/>
+    <col customWidth="1" max="1" min="1" style="76" width="35.7109375"/>
+    <col customWidth="1" max="2" min="2" style="76" width="12.7109375"/>
+    <col customWidth="1" max="3" min="3" style="76" width="15.42578125"/>
+    <col customWidth="1" max="4" min="4" style="76" width="15.7109375"/>
+    <col customWidth="1" max="7" min="5" style="76" width="25.7109375"/>
+    <col customWidth="1" max="8" min="8" style="76" width="30.7109375"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="76" width="17.85546875"/>
+    <col customWidth="1" max="10" min="10" style="76" width="25.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="76">
+    <row customHeight="1" ht="15" r="1" s="76">
       <c r="A1" s="81" t="inlineStr">
         <is>
           <t>REPORTING AGENCE MULTI-PAYS (CZZ MPE) - DR AMERIQUE CENTRALE au 2021-11-26 sur la Complétude des Dossiers Permanents</t>
@@ -13086,7 +13072,7 @@
     </row>
     <row r="2"/>
     <row r="3"/>
-    <row r="4" ht="15" customHeight="1" s="76">
+    <row customHeight="1" ht="15" r="4" s="76">
       <c r="A4" s="82" t="inlineStr">
         <is>
           <t>Taux de complétude moyen de l'agence</t>
@@ -13130,7 +13116,7 @@
       </c>
       <c r="J21" s="79" t="n"/>
     </row>
-    <row r="22" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="22" s="76">
       <c r="A22" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -13347,7 +13333,7 @@
       </c>
       <c r="J33" s="79" t="n"/>
     </row>
-    <row r="34" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="34" s="76">
       <c r="A34" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -13564,7 +13550,7 @@
       </c>
       <c r="J45" s="79" t="n"/>
     </row>
-    <row r="46" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="46" s="76">
       <c r="A46" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -13646,12 +13632,12 @@
         </is>
       </c>
       <c r="G47" s="9" t="inlineStr"/>
-      <c r="H47" s="84" t="inlineStr">
+      <c r="H47" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">5-	Documentation non exigible ( au regard des procédures de l’époque et/ou du produit ; dérogation obtenue…) </t>
         </is>
       </c>
-      <c r="I47" s="84" t="inlineStr">
+      <c r="I47" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">La convention ne reprend pas le modèle AFD mais celui de l'Administration Agreement signé avec la BID et il n’y a donc pas d’annexe 4 ni de mention à des CS. </t>
         </is>
@@ -13706,7 +13692,7 @@
       </c>
       <c r="J52" s="79" t="n"/>
     </row>
-    <row r="53" ht="39.95" customHeight="1" s="76">
+    <row customHeight="1" ht="39.95" r="53" s="76">
       <c r="A53" s="79" t="inlineStr">
         <is>
           <t>Taux de complétude du concours (%)</t>
@@ -13909,14 +13895,14 @@
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="A31:D31"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13991,14 +13977,14 @@
   <mergeCells count="1">
     <mergeCell ref="D53:F53"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14057,8 +14043,8 @@
   <mergeCells count="1">
     <mergeCell ref="D37:F37"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>